--- a/Conversiones ADC temp.xlsx
+++ b/Conversiones ADC temp.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2108\Documents\GitHub\ESP32_BOS_Frigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA96773-51C4-461B-9EB6-010EB0FF7B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72923F98-9D6B-4CEB-ABB3-5F0AB8B0122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28D00C3E-F339-4CE3-AA76-D061D53DEB0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{28D00C3E-F339-4CE3-AA76-D061D53DEB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Temperatura</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Valor calibracion</t>
+  </si>
+  <si>
+    <t>Tension amplificada V</t>
   </si>
 </sst>
 </file>
@@ -604,7 +608,442 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Curva Pt100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8888888888888934E-2"/>
+                  <c:y val="-1.8518518518518517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7AAF-4051-93EB-187119DDDE3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4999999999999997E-2"/>
+                  <c:y val="5.0925925925925923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7AAF-4051-93EB-187119DDDE3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja2!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>2.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2549999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>-74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-74.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AAF-4051-93EB-187119DDDE3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1107222959"/>
+        <c:axId val="1107220463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1107222959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107220463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1107220463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107222959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1160,6 +1599,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1181,6 +2136,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CE5070-25A6-4BFA-9EA2-6F3CA3D7BBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A025C3-FB19-40E1-A173-E9ABA3750AE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661C7EAD-2861-4082-9DC3-6F96AF7AEBF6}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,6 +2750,130 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E3601-F691-44E1-9531-536F6791B727}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-74.099999999999994</v>
+      </c>
+      <c r="D3">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-74.3</v>
+      </c>
+      <c r="D4">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>3050</v>
+      </c>
+      <c r="M5">
+        <v>-77.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>4096</v>
+      </c>
+      <c r="M6">
+        <f>L6*M5/L5</f>
+        <v>-104.07868852459016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="6">
+        <f>FORECAST(2.4,A3:A4,D3:D4)</f>
+        <v>-88.800000000001802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <f>100000/(C14-1)</f>
+        <v>5000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2">
+    <sortCondition descending="1" ref="A1:A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Conversiones ADC temp.xlsx
+++ b/Conversiones ADC temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2108\Documents\GitHub\ESP32_BOS_Frigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72923F98-9D6B-4CEB-ABB3-5F0AB8B0122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB3AAB-9769-465F-BB3E-9EA01C3EEF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{28D00C3E-F339-4CE3-AA76-D061D53DEB0D}"/>
   </bookViews>
@@ -2760,7 +2760,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L5">
-        <v>3050</v>
+        <v>2665</v>
       </c>
       <c r="M5">
-        <v>-77.5</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M6">
         <f>L6*M5/L5</f>
-        <v>-104.07868852459016</v>
+        <v>-122.95684803001876</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
